--- a/Fresh_Leads.xlsx
+++ b/Fresh_Leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6375,6 +6375,162 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>202318375R</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>['Sales@elevare.com.sg']</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>['+6580815245']</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://elevare.com.sg/</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>['https://instagram.com/stirupflavour']</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/elevare-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>202449408H</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>['enquiry@gilyfashion.com.sg']</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>['+6567484155']</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://www.gilyfashion.com.sg</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/gily-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>202243688N</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>['+6593372012']</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>['https://m.facebook.com/profile.php']</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/ai-wellness-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>202401375G</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>['instantforce.official@gmail.com']</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>['+6580113218']</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/instantforce-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>201841356N</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>['+6563231721']</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>http://www.urmpl.com/</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>['https://tr.linkedin.com/company/urmpl']</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/us-needling-textiles-trade-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
